--- a/测试表格2小时.xlsx
+++ b/测试表格2小时.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView activeTab="11" autoFilterDateGrouping="1" firstSheet="6" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="710" visibility="visible" windowHeight="12700" windowWidth="27320"/>
   </bookViews>
   <sheets>
-    <sheet name="Instruments" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Test Summary" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="DUT Description" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Pt100 check&amp;Hipot test" sheetId="4" state="hidden" r:id="rId4"/>
-    <sheet name="IR measure" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="1.Circuiting I &amp; 3.Drag Nm" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="2.Motor BEMF" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="5. Short circuit" sheetId="8" state="hidden" r:id="rId8"/>
-    <sheet name="3. PM Parameters Setup" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="7. Torque vs. Phase Current" sheetId="10" state="hidden" r:id="rId10"/>
-    <sheet name="Peak torque" sheetId="11" state="hidden" r:id="rId11"/>
-    <sheet name="8. Winding Heating" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="4. Cont. Torque Curve" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Efficiency" sheetId="14" state="hidden" r:id="rId14"/>
-    <sheet name="10.Efficiency Test" sheetId="15" state="hidden" r:id="rId15"/>
-    <sheet name="5. High Speed" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="12.Work Area Check" sheetId="17" state="hidden" r:id="rId17"/>
-    <sheet name="List" sheetId="18" state="hidden" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instruments" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Test Summary" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DUT Description" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pt100 check&amp;Hipot test" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IR measure" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1.Circuiting I &amp; 3.Drag Nm" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2.Motor BEMF" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5. Short circuit" sheetId="8" state="hidden" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3. PM Parameters Setup" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7. Torque vs. Phase Current" sheetId="10" state="hidden" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Peak torque" sheetId="11" state="hidden" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="8. Winding Heating" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4. Cont. Torque Curve" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Efficiency" sheetId="14" state="hidden" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10.Efficiency Test" sheetId="15" state="hidden" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5. High Speed" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12.Work Area Check" sheetId="17" state="hidden" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="List" sheetId="18" state="hidden" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName localSheetId="5" name="Mode">#REF!</definedName>
@@ -3974,14 +3974,14 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr b="1" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1200">
                 <a:solidFill>
@@ -4011,7 +4011,7 @@
               <a:cs charset="0" panose="020B0604020202090204" pitchFamily="7" typeface="Arial"/>
             </a:endParaRPr>
           </a:p>
-          <a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr b="1" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1200">
                 <a:solidFill>
@@ -4072,7 +4072,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln algn="ctr" cap="rnd" cmpd="sng" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" algn="ctr" cap="rnd" cmpd="sng" w="28575">
               <a:noFill/>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -4081,7 +4081,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -4159,7 +4159,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln algn="ctr" cap="rnd" cmpd="sng" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" algn="ctr" cap="rnd" cmpd="sng" w="28575">
               <a:noFill/>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -4168,7 +4168,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -4246,7 +4246,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln algn="ctr" cap="rnd" cmpd="sng" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" algn="ctr" cap="rnd" cmpd="sng" w="28575">
               <a:noFill/>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -4255,7 +4255,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -4338,9 +4338,9 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr b="1" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
                     <a:solidFill>
@@ -4357,7 +4357,7 @@
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
-              <a:p>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr b="1" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
                     <a:solidFill>
@@ -4384,9 +4384,9 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <txPr>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr b="0" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
                 <a:solidFill>
@@ -4417,9 +4417,9 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr anchor="ctr" anchorCtr="1" rot="-5400000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="-5400000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr b="1" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
                     <a:solidFill>
@@ -4436,7 +4436,7 @@
                 </a:r>
                 <a:endParaRPr b="1" lang="en-US"/>
               </a:p>
-              <a:p>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr b="1" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
                     <a:solidFill>
@@ -4463,9 +4463,9 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <txPr>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr b="0" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
                 <a:solidFill>
@@ -4502,7 +4502,7 @@
       </layout>
       <overlay val="0"/>
       <spPr>
-        <a:ln>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
@@ -4510,9 +4510,9 @@
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-        <a:lstStyle/>
-        <a:p>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr>
             <a:defRPr b="0" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
               <a:solidFill>
@@ -4536,14 +4536,14 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr b="1" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1200">
                 <a:solidFill>
@@ -4573,7 +4573,7 @@
               <a:cs charset="0" panose="020B0604020202090204" pitchFamily="7" typeface="Arial"/>
             </a:endParaRPr>
           </a:p>
-          <a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr b="1" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1200">
                 <a:solidFill>
@@ -4634,7 +4634,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln algn="ctr" cap="rnd" cmpd="sng" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" algn="ctr" cap="rnd" cmpd="sng" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:shade val="95000"/>
@@ -4649,7 +4649,7 @@
             <symbol val="circle"/>
             <size val="2"/>
             <spPr>
-              <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" algn="ctr" cap="flat" cmpd="sng" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1">
                     <a:shade val="95000"/>
@@ -4735,9 +4735,9 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr b="1" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
                     <a:solidFill>
@@ -4754,7 +4754,7 @@
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
-              <a:p>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr b="1" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
                     <a:solidFill>
@@ -4781,9 +4781,9 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <txPr>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr b="0" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
                 <a:solidFill>
@@ -4814,9 +4814,9 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr anchor="ctr" anchorCtr="1" rot="-5400000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="-5400000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr b="1" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
                     <a:solidFill>
@@ -4839,7 +4839,7 @@
                   <a:cs charset="0" panose="020B0604020202090204" pitchFamily="7" typeface="Arial"/>
                 </a:endParaRPr>
               </a:p>
-              <a:p>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr b="1" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
                     <a:solidFill>
@@ -4881,9 +4881,9 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <txPr>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr b="0" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
                 <a:solidFill>
@@ -4909,7 +4909,7 @@
       <layout/>
       <overlay val="0"/>
       <spPr>
-        <a:ln>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
@@ -4917,9 +4917,9 @@
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-        <a:lstStyle/>
-        <a:p>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr>
             <a:defRPr b="0" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
               <a:solidFill>
@@ -4943,14 +4943,14 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr b="1" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1200">
                 <a:solidFill>
@@ -4994,7 +4994,7 @@
               <a:cs charset="0" panose="020B0604020202090204" pitchFamily="7" typeface="Arial"/>
             </a:endParaRPr>
           </a:p>
-          <a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr b="1" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1200">
                 <a:solidFill>
@@ -5055,7 +5055,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln algn="ctr" cap="rnd" cmpd="sng" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" algn="ctr" cap="rnd" cmpd="sng" w="28575">
               <a:noFill/>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -5065,7 +5065,7 @@
             <symbol val="circle"/>
             <size val="2"/>
             <spPr>
-              <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" algn="ctr" cap="flat" cmpd="sng" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1">
                     <a:shade val="95000"/>
@@ -5181,9 +5181,9 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr b="1" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
                     <a:solidFill>
@@ -5200,7 +5200,7 @@
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
-              <a:p>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr b="1" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
                     <a:solidFill>
@@ -5227,9 +5227,9 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <txPr>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr b="0" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
                 <a:solidFill>
@@ -5260,9 +5260,9 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr anchor="ctr" anchorCtr="1" rot="-5400000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="-5400000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr b="1" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
                     <a:solidFill>
@@ -5279,7 +5279,7 @@
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
-              <a:p>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr b="1" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
                     <a:solidFill>
@@ -5306,9 +5306,9 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <txPr>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr b="0" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
                 <a:solidFill>
@@ -5334,7 +5334,7 @@
       <layout/>
       <overlay val="0"/>
       <spPr>
-        <a:ln>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
@@ -5342,9 +5342,9 @@
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-        <a:lstStyle/>
-        <a:p>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr>
             <a:defRPr b="0" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
               <a:solidFill>
@@ -5368,14 +5368,14 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr b="1" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1200">
                 <a:solidFill>
@@ -5434,7 +5434,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln algn="ctr" cap="rnd" cmpd="sng" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" algn="ctr" cap="rnd" cmpd="sng" w="28575">
               <a:noFill/>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -5444,10 +5444,10 @@
             <symbol val="circle"/>
             <size val="7"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:srgbClr val="00B0F0"/>
               </a:solidFill>
-              <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" algn="ctr" cap="flat" cmpd="sng" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1">
                     <a:shade val="95000"/>
@@ -5478,9 +5478,9 @@
               </layout>
               <numFmt formatCode="#,##0.000000" sourceLinked="0"/>
               <txPr>
-                <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
+                <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+                <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+                <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                   <a:pPr>
                     <a:defRPr b="0" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
                       <a:solidFill>
@@ -5534,7 +5534,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln algn="ctr" cap="rnd" cmpd="sng" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" algn="ctr" cap="rnd" cmpd="sng" w="28575">
               <a:noFill/>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -5544,10 +5544,10 @@
             <symbol val="circle"/>
             <size val="7"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:srgbClr val="FFC000"/>
               </a:solidFill>
-              <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" algn="ctr" cap="flat" cmpd="sng" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent2">
                     <a:shade val="95000"/>
@@ -5577,9 +5577,9 @@
               </layout>
               <numFmt formatCode="0.000000" sourceLinked="0"/>
               <txPr>
-                <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
+                <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+                <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+                <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                   <a:pPr>
                     <a:defRPr b="0" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
                       <a:solidFill>
@@ -5638,9 +5638,9 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr b="1" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
                     <a:solidFill>
@@ -5667,9 +5667,9 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <txPr>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr b="0" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
                 <a:solidFill>
@@ -5700,9 +5700,9 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr anchor="ctr" anchorCtr="1" rot="-5400000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="-5400000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr b="1" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
                     <a:solidFill>
@@ -5729,9 +5729,9 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <txPr>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr b="0" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
                 <a:solidFill>
@@ -5776,9 +5776,9 @@
       </layout>
       <overlay val="0"/>
       <txPr>
-        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-        <a:lstStyle/>
-        <a:p>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr>
             <a:defRPr b="0" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
               <a:solidFill>
@@ -5802,7 +5802,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <plotArea>
       <layout/>
@@ -5824,7 +5824,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln algn="ctr" cap="rnd" cmpd="sng" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" algn="ctr" cap="rnd" cmpd="sng" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:shade val="95000"/>
@@ -5838,7 +5838,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -7096,7 +7096,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln algn="ctr" cap="rnd" cmpd="sng" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" algn="ctr" cap="rnd" cmpd="sng" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:shade val="95000"/>
@@ -7110,7 +7110,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -8378,9 +8378,9 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <txPr>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr b="0" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
                 <a:solidFill>
@@ -8416,9 +8416,9 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <txPr>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr b="0" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
                 <a:solidFill>
@@ -8444,9 +8444,9 @@
       <layout/>
       <overlay val="0"/>
       <txPr>
-        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-        <a:lstStyle/>
-        <a:p>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr>
             <a:defRPr b="0" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
               <a:solidFill>
@@ -8470,7 +8470,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <plotArea>
       <layout>
@@ -8504,7 +8504,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln algn="ctr" cap="rnd" cmpd="sng" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" algn="ctr" cap="rnd" cmpd="sng" w="28575">
               <a:noFill/>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -8513,7 +8513,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -8559,7 +8559,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln algn="ctr" cap="rnd" cmpd="sng" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" algn="ctr" cap="rnd" cmpd="sng" w="28575">
               <a:noFill/>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -8568,7 +8568,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -8622,9 +8622,9 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <txPr>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr b="0" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
                 <a:solidFill>
@@ -8657,9 +8657,9 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <txPr>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr b="0" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
                 <a:solidFill>
@@ -8696,9 +8696,9 @@
       </layout>
       <overlay val="0"/>
       <txPr>
-        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-        <a:lstStyle/>
-        <a:p>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr>
             <a:defRPr b="0" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
               <a:solidFill>
@@ -8722,14 +8722,14 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr b="1" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1800">
                 <a:solidFill>
@@ -8776,7 +8776,7 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:ln algn="ctr" cap="rnd" cmpd="sng" w="28575">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" algn="ctr" cap="rnd" cmpd="sng" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:shade val="95000"/>
@@ -8791,7 +8791,7 @@
             <symbol val="circle"/>
             <size val="5"/>
             <spPr>
-              <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" algn="ctr" cap="flat" cmpd="sng" w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1">
                     <a:shade val="95000"/>
@@ -8988,9 +8988,9 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr b="1" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
                     <a:solidFill>
@@ -9026,9 +9026,9 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <txPr>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr b="0" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
                 <a:solidFill>
@@ -9057,7 +9057,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" algn="ctr" cap="flat" cmpd="sng" w="9525">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:tint val="75000"/>
@@ -9073,9 +9073,9 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr anchor="ctr" anchorCtr="1" rot="-5400000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="-5400000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr b="1" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
                     <a:solidFill>
@@ -9111,9 +9111,9 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <txPr>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="0" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr b="0" baseline="0" i="0" kern="1200" lang="zh-CN" strike="noStrike" sz="1000">
                 <a:solidFill>
@@ -9141,7 +9141,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="absolute">
     <from>
       <col>0</col>
@@ -9161,9 +9161,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -9188,9 +9188,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -9215,9 +9215,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -9227,7 +9227,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="absolute">
     <from>
       <col>0</col>
@@ -9247,9 +9247,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -9259,7 +9259,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>13</col>
@@ -9274,20 +9274,20 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="9242425" y="2286000"/>
           <a:ext cx="6096000" cy="4572000"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -9308,14 +9308,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -9336,14 +9336,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -9364,14 +9364,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -9392,14 +9392,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -9420,14 +9420,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId6"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -9448,14 +9448,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId7"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId7"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -9476,14 +9476,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId8"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId8"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -9504,14 +9504,14 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId9"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId9"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -9532,13 +9532,16 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId10"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId10"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -9547,7 +9550,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
       <col>11</col>
@@ -9567,19 +9570,100 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
     <clientData/>
   </twoCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>11</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6096000" cy="4572000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="2" name="Image 2"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>11</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6096000" cy="4572000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="3" name="Image 3"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>11</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6096000" cy="4572000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="4" name="Image 4"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
       <col>34</col>
@@ -9599,9 +9683,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -9626,9 +9710,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -10421,7 +10505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -11213,7 +11297,7 @@
   </dataValidations>
   <pageMargins bottom="0.3" footer="0.3" header="0.3" left="0.3" right="0.3" top="0.3"/>
   <pageSetup orientation="landscape" paperSize="9"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11573,7 +11657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -39064,7 +39148,7 @@
   </dataValidations>
   <pageMargins bottom="0.3" footer="0.3" header="0.3" left="0.3" right="0.3" top="0.3"/>
   <pageSetup orientation="landscape" paperSize="9"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -45513,7 +45597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -45642,7 +45726,7 @@
       </c>
       <c r="G6" s="13" t="n"/>
       <c r="I6" s="69" t="n">
-        <v>-42</v>
+        <v>-45</v>
       </c>
       <c r="J6" s="63" t="n"/>
       <c r="K6" s="63" t="n"/>
@@ -45845,8 +45929,12 @@
           <t>[°C]</t>
         </is>
       </c>
-      <c r="F14" s="63" t="n"/>
-      <c r="G14" s="63" t="n"/>
+      <c r="F14" s="63" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="G14" s="63" t="n">
+        <v>57.7</v>
+      </c>
       <c r="I14" s="69" t="n">
         <v>9.259259259259259e-05</v>
       </c>
@@ -45996,8 +46084,12 @@
           <t>[°C]</t>
         </is>
       </c>
-      <c r="F20" s="63" t="n"/>
-      <c r="G20" s="63" t="n"/>
+      <c r="F20" s="63" t="n">
+        <v>103.6</v>
+      </c>
+      <c r="G20" s="63" t="n">
+        <v>108.2</v>
+      </c>
       <c r="I20" s="69" t="n">
         <v>0.000162037037037037</v>
       </c>
@@ -49601,12 +49693,12 @@
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -52337,7 +52429,7 @@
   </dataValidations>
   <pageMargins bottom="0.3" footer="0.3" header="0.3" left="0.3" right="0.3" top="0.3"/>
   <pageSetup orientation="landscape" paperSize="9"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -55893,7 +55985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -56734,7 +56826,7 @@
   </dataValidations>
   <pageMargins bottom="0.3" footer="0.3" header="0.3" left="0.3" right="0.3" top="0.3"/>
   <pageSetup orientation="landscape" paperSize="9"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
